--- a/DHK.Blazor.Server/wwwroot/templates/TeacherTemplate.xlsx
+++ b/DHK.Blazor.Server/wwwroot/templates/TeacherTemplate.xlsx
@@ -47,7 +47,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>1</t>
+    <t>0000000001</t>
   </si>
   <si>
     <t>Sample</t>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>PARTTIME</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
